--- a/Ressources/formation_import.xlsx
+++ b/Ressources/formation_import.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="64">
   <si>
     <t>identifiant du domaine</t>
   </si>
@@ -67,6 +67,156 @@
   </si>
   <si>
     <t>id_diplome</t>
+  </si>
+  <si>
+    <t>Métiers de l'enseignement, de l'éducation et de la formation (MEEF)</t>
+  </si>
+  <si>
+    <t>Philosophie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Géographie et aménagement </t>
+  </si>
+  <si>
+    <t>Histoire</t>
+  </si>
+  <si>
+    <t>Information-communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciences de l'Education </t>
+  </si>
+  <si>
+    <t>Intervention et développement social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciences sociales </t>
+  </si>
+  <si>
+    <t>Métiers de l'enseignement, de l'éducation et de la formation (MEEF) 2nd degré</t>
+  </si>
+  <si>
+    <t>Métiers de l'enseignement, de l'éducation et de la formation (MEEF) Pratique et ingénieurie de formation</t>
+  </si>
+  <si>
+    <t>Sciences et techniques des activités physiques et sportives (STAPS)</t>
+  </si>
+  <si>
+    <t>Sciences du sport et entrainement</t>
+  </si>
+  <si>
+    <t>Urbanisme et aménagement</t>
+  </si>
+  <si>
+    <t>Administration et échanges internationaux</t>
+  </si>
+  <si>
+    <t>Politiques publiques</t>
+  </si>
+  <si>
+    <t>Management international des territoires Gestion des territoires et développement local</t>
+  </si>
+  <si>
+    <t>Management international des territoires Gestion des territoires et et développement local</t>
+  </si>
+  <si>
+    <t>Management et commerce international</t>
+  </si>
+  <si>
+    <t>Droit des affaires</t>
+  </si>
+  <si>
+    <t>Droit international et européen</t>
+  </si>
+  <si>
+    <t>Droit international et europén</t>
+  </si>
+  <si>
+    <t>Droit privé</t>
+  </si>
+  <si>
+    <t>Droit public et droit privé</t>
+  </si>
+  <si>
+    <t>Droit du numérique</t>
+  </si>
+  <si>
+    <t>Banque et marchés financiers</t>
+  </si>
+  <si>
+    <t>Expertise économique</t>
+  </si>
+  <si>
+    <t>Entrepreunariat et management de projets</t>
+  </si>
+  <si>
+    <t>Management et administration des entreprises</t>
+  </si>
+  <si>
+    <t>Méthodes informatiques appliquées à la gestion des entreprises (MIAGE)</t>
+  </si>
+  <si>
+    <t>Comptabilité, contrôle, audit</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Management et conseil</t>
+  </si>
+  <si>
+    <t>Management et santé</t>
+  </si>
+  <si>
+    <t>Marketing et vente</t>
+  </si>
+  <si>
+    <t>Diplôme d'ingenieur en économie et gestion</t>
+  </si>
+  <si>
+    <t>Biologie santé</t>
+  </si>
+  <si>
+    <t>Biologie-bioressources</t>
+  </si>
+  <si>
+    <t>Chimie-matériaux</t>
+  </si>
+  <si>
+    <t>Informatique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traitement du signal et des images </t>
+  </si>
+  <si>
+    <t>Mécanique</t>
+  </si>
+  <si>
+    <t>Mathématiques et applications</t>
+  </si>
+  <si>
+    <t>Sciences et génie de l'environnement</t>
+  </si>
+  <si>
+    <t>Sciences pour l'ingénieur</t>
+  </si>
+  <si>
+    <t>2ème cycle des études médicales</t>
+  </si>
+  <si>
+    <t>3ème cycle (3 à 5 ans)</t>
+  </si>
+  <si>
+    <t>Diplôme d'ingénieur en biosciences</t>
+  </si>
+  <si>
+    <t>Management international trilingue</t>
+  </si>
+  <si>
+    <t>Lettres</t>
+  </si>
+  <si>
+    <t>Langues et cultures étrangères</t>
   </si>
 </sst>
 </file>
@@ -388,9 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -440,6 +588,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2">
         <v>2</v>
       </c>
@@ -457,7 +608,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" s="2">
         <v>6</v>
       </c>
@@ -478,7 +631,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="2">
         <v>6</v>
       </c>
@@ -499,6 +654,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
       <c r="B5">
         <v>6</v>
       </c>
@@ -516,6 +674,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
       <c r="B6">
         <v>6</v>
       </c>
@@ -533,6 +694,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
@@ -550,6 +714,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
       <c r="B8">
         <v>6</v>
       </c>
@@ -567,6 +734,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
       <c r="B9">
         <v>11</v>
       </c>
@@ -584,6 +754,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
       <c r="B10">
         <v>11</v>
       </c>
@@ -601,6 +774,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
       <c r="B11">
         <v>6</v>
       </c>
@@ -618,6 +794,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
       <c r="B12">
         <v>6</v>
       </c>
@@ -635,6 +814,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
       <c r="B13">
         <v>6</v>
       </c>
@@ -652,6 +834,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
       <c r="B14">
         <v>6</v>
       </c>
@@ -669,6 +854,9 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
       <c r="B15">
         <v>6</v>
       </c>
@@ -686,6 +874,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
       <c r="B16">
         <v>6</v>
       </c>
@@ -702,7 +893,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
       <c r="B17">
         <v>6</v>
       </c>
@@ -719,7 +913,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
       <c r="B18">
         <v>2</v>
       </c>
@@ -736,7 +933,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>6</v>
       </c>
@@ -753,7 +953,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
       <c r="B20">
         <v>8</v>
       </c>
@@ -770,7 +973,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
       <c r="B21">
         <v>8</v>
       </c>
@@ -787,7 +993,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
       <c r="B22">
         <v>8</v>
       </c>
@@ -804,7 +1013,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
       <c r="B23">
         <v>8</v>
       </c>
@@ -821,7 +1033,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
       <c r="B24">
         <v>8</v>
       </c>
@@ -838,7 +1053,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
       <c r="B25">
         <v>8</v>
       </c>
@@ -855,7 +1073,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
       <c r="B26">
         <v>8</v>
       </c>
@@ -872,7 +1093,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
       <c r="B27">
         <v>2</v>
       </c>
@@ -889,7 +1113,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
       <c r="B28">
         <v>2</v>
       </c>
@@ -906,7 +1133,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
       <c r="B29">
         <v>8</v>
       </c>
@@ -923,7 +1153,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
       <c r="B30">
         <v>8</v>
       </c>
@@ -940,7 +1173,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
       <c r="B31">
         <v>2</v>
       </c>
@@ -957,7 +1193,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
       <c r="B32">
         <v>8</v>
       </c>
@@ -971,7 +1210,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
       <c r="B33">
         <v>8</v>
       </c>
@@ -988,7 +1230,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
       <c r="B34">
         <v>8</v>
       </c>
@@ -1005,7 +1250,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
       <c r="B35">
         <v>8</v>
       </c>
@@ -1022,7 +1270,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
       <c r="B36">
         <v>8</v>
       </c>
@@ -1039,7 +1290,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
       <c r="B37">
         <v>14</v>
       </c>
@@ -1056,7 +1310,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
       <c r="B38">
         <v>14</v>
       </c>
@@ -1073,7 +1330,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
       <c r="B39">
         <v>14</v>
       </c>
@@ -1090,7 +1350,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
       <c r="B40">
         <v>14</v>
       </c>
@@ -1107,7 +1370,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
       <c r="B41">
         <v>14</v>
       </c>
@@ -1124,7 +1390,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
       <c r="B42">
         <v>14</v>
       </c>
@@ -1141,7 +1410,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
       <c r="B43">
         <v>14</v>
       </c>
@@ -1158,7 +1430,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
       <c r="B44">
         <v>14</v>
       </c>
@@ -1175,7 +1450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
       <c r="B45">
         <v>14</v>
       </c>
@@ -1192,7 +1470,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
       <c r="B46">
         <v>4</v>
       </c>
@@ -1209,7 +1490,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
       <c r="B47">
         <v>4</v>
       </c>
@@ -1226,7 +1510,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
       <c r="B48">
         <v>4</v>
       </c>
@@ -1243,7 +1530,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
       <c r="B49">
         <v>4</v>
       </c>
@@ -1260,7 +1550,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
       <c r="B50">
         <v>4</v>
       </c>
@@ -1277,7 +1570,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
       <c r="B51">
         <v>4</v>
       </c>
@@ -1294,7 +1590,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
       <c r="B52">
         <v>4</v>
       </c>
@@ -1311,7 +1610,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
       <c r="B53">
         <v>4</v>
       </c>
@@ -1328,7 +1630,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
       <c r="B54">
         <v>4</v>
       </c>
@@ -1345,7 +1650,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
       <c r="B55">
         <v>4</v>
       </c>
@@ -1362,7 +1670,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
       <c r="B56">
         <v>4</v>
       </c>
@@ -1379,7 +1690,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
       <c r="B57">
         <v>4</v>
       </c>
@@ -1396,7 +1710,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
       <c r="B58">
         <v>4</v>
       </c>
@@ -1413,7 +1730,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
       <c r="B59">
         <v>5</v>
       </c>
@@ -1430,7 +1750,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
       <c r="B60">
         <v>5</v>
       </c>
@@ -1447,7 +1770,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
       <c r="B61">
         <v>5</v>
       </c>
@@ -1464,7 +1790,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
       <c r="B62">
         <v>5</v>
       </c>
@@ -1481,7 +1810,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>32</v>
+      </c>
       <c r="B63">
         <v>5</v>
       </c>
@@ -1498,7 +1830,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
       <c r="B64">
         <v>5</v>
       </c>
@@ -1515,7 +1850,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
       <c r="B65">
         <v>5</v>
       </c>
@@ -1532,7 +1870,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
       <c r="B66">
         <v>5</v>
       </c>
@@ -1549,7 +1890,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
       <c r="B67">
         <v>5</v>
       </c>
@@ -1566,7 +1910,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
       <c r="B68">
         <v>5</v>
       </c>
@@ -1583,7 +1930,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
       <c r="B69">
         <v>5</v>
       </c>
@@ -1600,7 +1950,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
       <c r="B70">
         <v>5</v>
       </c>
@@ -1617,7 +1970,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
       <c r="B71">
         <v>5</v>
       </c>
@@ -1634,7 +1990,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
       <c r="B72">
         <v>5</v>
       </c>
@@ -1651,7 +2010,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
       <c r="B73">
         <v>5</v>
       </c>
@@ -1668,7 +2030,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
       <c r="B74">
         <v>5</v>
       </c>
@@ -1685,7 +2050,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
       <c r="B75">
         <v>5</v>
       </c>
@@ -1702,7 +2070,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
       <c r="B76">
         <v>5</v>
       </c>
@@ -1719,7 +2090,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
       <c r="B77">
         <v>5</v>
       </c>
@@ -1736,7 +2110,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
       <c r="B78">
         <v>5</v>
       </c>
@@ -1753,7 +2130,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
       <c r="B79">
         <v>5</v>
       </c>
@@ -1770,7 +2150,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
       <c r="B80">
         <v>5</v>
       </c>
@@ -1787,7 +2170,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
       <c r="B81">
         <v>5</v>
       </c>
@@ -1804,7 +2190,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>35</v>
+      </c>
       <c r="B82">
         <v>5</v>
       </c>
@@ -1821,7 +2210,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
       <c r="B83">
         <v>5</v>
       </c>
@@ -1838,7 +2230,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
       <c r="B84">
         <v>10</v>
       </c>
@@ -1855,7 +2250,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
       <c r="B85">
         <v>10</v>
       </c>
@@ -1872,7 +2270,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
       <c r="B86">
         <v>10</v>
       </c>
@@ -1889,7 +2290,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
       <c r="B87">
         <v>10</v>
       </c>
@@ -1906,7 +2310,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
       <c r="B88">
         <v>10</v>
       </c>
@@ -1923,7 +2330,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
       <c r="B89">
         <v>10</v>
       </c>
@@ -1940,7 +2350,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
       <c r="B90">
         <v>10</v>
       </c>
@@ -1957,7 +2370,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
       <c r="B91">
         <v>10</v>
       </c>
@@ -1974,7 +2390,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
       <c r="B92">
         <v>10</v>
       </c>
@@ -1991,7 +2410,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
       <c r="B93">
         <v>1</v>
       </c>
@@ -2008,7 +2430,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
       <c r="B94">
         <v>1</v>
       </c>
@@ -2025,7 +2450,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
       <c r="B95">
         <v>2</v>
       </c>
@@ -2042,7 +2470,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
       <c r="B96">
         <v>2</v>
       </c>
@@ -2059,7 +2490,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>43</v>
+      </c>
       <c r="B97">
         <v>11</v>
       </c>
@@ -2076,7 +2510,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
       <c r="B98">
         <v>11</v>
       </c>
@@ -2093,7 +2530,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>44</v>
+      </c>
       <c r="B99">
         <v>11</v>
       </c>
@@ -2110,7 +2550,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
       <c r="B100">
         <v>11</v>
       </c>
@@ -2127,7 +2570,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
       <c r="B101">
         <v>11</v>
       </c>
@@ -2144,7 +2590,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
       <c r="B102">
         <v>11</v>
       </c>
@@ -2161,7 +2610,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
       <c r="B103">
         <v>11</v>
       </c>
@@ -2178,7 +2630,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
       <c r="B104">
         <v>11</v>
       </c>
@@ -2195,7 +2650,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>45</v>
+      </c>
       <c r="B105">
         <v>11</v>
       </c>
@@ -2212,7 +2670,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>45</v>
+      </c>
       <c r="B106">
         <v>11</v>
       </c>
@@ -2229,7 +2690,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>45</v>
+      </c>
       <c r="B107">
         <v>11</v>
       </c>
@@ -2246,7 +2710,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
       <c r="B108">
         <v>11</v>
       </c>
@@ -2263,7 +2730,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>45</v>
+      </c>
       <c r="B109">
         <v>11</v>
       </c>
@@ -2280,7 +2750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
       <c r="B110">
         <v>3</v>
       </c>
@@ -2297,7 +2770,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
       <c r="B111">
         <v>3</v>
       </c>
@@ -2314,7 +2790,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
       <c r="B112">
         <v>3</v>
       </c>
@@ -2331,7 +2810,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
       <c r="B113">
         <v>11</v>
       </c>
@@ -2348,7 +2830,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>47</v>
+      </c>
       <c r="B114">
         <v>11</v>
       </c>
@@ -2365,7 +2850,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>47</v>
+      </c>
       <c r="B115">
         <v>11</v>
       </c>
@@ -2382,7 +2870,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>47</v>
+      </c>
       <c r="B116">
         <v>11</v>
       </c>
@@ -2399,7 +2890,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>48</v>
+      </c>
       <c r="B117">
         <v>1</v>
       </c>
@@ -2416,7 +2910,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>49</v>
+      </c>
       <c r="B118">
         <v>7</v>
       </c>
@@ -2433,7 +2930,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>49</v>
+      </c>
       <c r="B119">
         <v>7</v>
       </c>
@@ -2450,7 +2950,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>49</v>
+      </c>
       <c r="B120">
         <v>7</v>
       </c>
@@ -2467,7 +2970,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>49</v>
+      </c>
       <c r="B121">
         <v>7</v>
       </c>
@@ -2484,7 +2990,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>49</v>
+      </c>
       <c r="B122">
         <v>7</v>
       </c>
@@ -2501,7 +3010,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>49</v>
+      </c>
       <c r="B123">
         <v>7</v>
       </c>
@@ -2518,7 +3030,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>49</v>
+      </c>
       <c r="B124">
         <v>7</v>
       </c>
@@ -2535,7 +3050,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>49</v>
+      </c>
       <c r="B125">
         <v>7</v>
       </c>
@@ -2552,7 +3070,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
       <c r="B126">
         <v>7</v>
       </c>
@@ -2566,7 +3087,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>49</v>
+      </c>
       <c r="B127">
         <v>7</v>
       </c>
@@ -2580,7 +3104,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>49</v>
+      </c>
       <c r="B128">
         <v>7</v>
       </c>
@@ -2597,7 +3124,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>50</v>
+      </c>
       <c r="B129">
         <v>9</v>
       </c>
@@ -2614,7 +3144,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
       <c r="B130">
         <v>9</v>
       </c>
@@ -2631,7 +3164,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
       <c r="B131">
         <v>9</v>
       </c>
@@ -2648,7 +3184,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
       <c r="B132">
         <v>9</v>
       </c>
@@ -2665,7 +3204,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
       <c r="B133">
         <v>2</v>
       </c>
@@ -2682,7 +3224,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>51</v>
+      </c>
       <c r="B134">
         <v>9</v>
       </c>
@@ -2699,7 +3244,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>51</v>
+      </c>
       <c r="B135">
         <v>9</v>
       </c>
@@ -2716,7 +3264,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>51</v>
+      </c>
       <c r="B136">
         <v>9</v>
       </c>
@@ -2733,7 +3284,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>51</v>
+      </c>
       <c r="B137">
         <v>9</v>
       </c>
@@ -2750,7 +3304,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>51</v>
+      </c>
       <c r="B138">
         <v>9</v>
       </c>
@@ -2767,7 +3324,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>51</v>
+      </c>
       <c r="B139">
         <v>9</v>
       </c>
@@ -2784,7 +3344,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
       <c r="B140">
         <v>2</v>
       </c>
@@ -2801,7 +3364,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
       <c r="B141">
         <v>9</v>
       </c>
@@ -2818,7 +3384,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
       <c r="B142">
         <v>2</v>
       </c>
@@ -2835,7 +3404,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
       <c r="B143">
         <v>2</v>
       </c>
@@ -2852,7 +3424,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
       <c r="B144">
         <v>2</v>
       </c>
@@ -2869,7 +3444,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
       <c r="B145">
         <v>2</v>
       </c>
@@ -2886,7 +3464,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
       <c r="B146">
         <v>2</v>
       </c>
@@ -2903,7 +3484,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
       <c r="B147">
         <v>2</v>
       </c>
@@ -2920,7 +3504,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>52</v>
+      </c>
       <c r="B148">
         <v>9</v>
       </c>
@@ -2937,7 +3524,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>52</v>
+      </c>
       <c r="B149">
         <v>9</v>
       </c>
@@ -2954,7 +3544,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>52</v>
+      </c>
       <c r="B150">
         <v>9</v>
       </c>
@@ -2971,7 +3564,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>53</v>
+      </c>
       <c r="B151">
         <v>9</v>
       </c>
@@ -2988,7 +3584,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
       <c r="B152">
         <v>9</v>
       </c>
@@ -3005,7 +3604,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>55</v>
+      </c>
       <c r="B153">
         <v>9</v>
       </c>
@@ -3022,7 +3624,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>55</v>
+      </c>
       <c r="B154">
         <v>9</v>
       </c>
@@ -3039,7 +3644,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>55</v>
+      </c>
       <c r="B155">
         <v>9</v>
       </c>
@@ -3056,7 +3664,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>55</v>
+      </c>
       <c r="B156">
         <v>9</v>
       </c>
@@ -3073,7 +3684,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>56</v>
+      </c>
       <c r="B157">
         <v>9</v>
       </c>
@@ -3090,7 +3704,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>56</v>
+      </c>
       <c r="B158">
         <v>9</v>
       </c>
@@ -3107,7 +3724,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>56</v>
+      </c>
       <c r="B159">
         <v>9</v>
       </c>
@@ -3124,7 +3744,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>56</v>
+      </c>
       <c r="B160">
         <v>9</v>
       </c>
@@ -3141,7 +3764,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>56</v>
+      </c>
       <c r="B161">
         <v>9</v>
       </c>
@@ -3158,7 +3784,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>57</v>
+      </c>
       <c r="B162">
         <v>9</v>
       </c>
@@ -3175,7 +3804,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>57</v>
+      </c>
       <c r="B163">
         <v>9</v>
       </c>
@@ -3192,7 +3824,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>57</v>
+      </c>
       <c r="B164">
         <v>9</v>
       </c>
@@ -3209,7 +3844,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>57</v>
+      </c>
       <c r="B165">
         <v>9</v>
       </c>
@@ -3226,7 +3864,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>57</v>
+      </c>
       <c r="B166">
         <v>9</v>
       </c>
@@ -3243,7 +3884,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>57</v>
+      </c>
       <c r="B167">
         <v>9</v>
       </c>
@@ -3260,7 +3904,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>58</v>
+      </c>
       <c r="B168">
         <v>7</v>
       </c>
@@ -3277,7 +3924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>58</v>
+      </c>
       <c r="B169">
         <v>7</v>
       </c>
@@ -3294,7 +3944,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>58</v>
+      </c>
       <c r="B170">
         <v>7</v>
       </c>
@@ -3311,7 +3964,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>59</v>
+      </c>
       <c r="B171">
         <v>7</v>
       </c>
@@ -3325,7 +3981,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>59</v>
+      </c>
       <c r="B172">
         <v>7</v>
       </c>
@@ -3339,7 +3998,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>60</v>
+      </c>
       <c r="B173">
         <v>17</v>
       </c>
@@ -3356,7 +4018,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>60</v>
+      </c>
       <c r="B174">
         <v>17</v>
       </c>
@@ -3373,7 +4038,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>60</v>
+      </c>
       <c r="B175">
         <v>17</v>
       </c>
@@ -3390,7 +4058,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>61</v>
+      </c>
       <c r="B176">
         <v>6</v>
       </c>
@@ -3407,7 +4078,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>61</v>
+      </c>
       <c r="B177">
         <v>6</v>
       </c>
@@ -3424,7 +4098,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>61</v>
+      </c>
       <c r="B178">
         <v>6</v>
       </c>
@@ -3441,7 +4118,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>62</v>
+      </c>
       <c r="B179">
         <v>6</v>
       </c>
@@ -3458,7 +4138,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>62</v>
+      </c>
       <c r="B180">
         <v>6</v>
       </c>
@@ -3475,7 +4158,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
       <c r="B181">
         <v>2</v>
       </c>
@@ -3492,7 +4178,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
       <c r="B182">
         <v>6</v>
       </c>
@@ -3509,7 +4198,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
       <c r="B183">
         <v>6</v>
       </c>
@@ -3526,7 +4218,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
       <c r="B184">
         <v>6</v>
       </c>
@@ -3543,7 +4238,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
       <c r="B185">
         <v>6</v>
       </c>
@@ -3560,7 +4258,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>14</v>
+      </c>
       <c r="B186">
         <v>2</v>
       </c>
@@ -3577,7 +4278,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>63</v>
+      </c>
       <c r="B187">
         <v>6</v>
       </c>
@@ -3594,7 +4298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>63</v>
+      </c>
       <c r="B188">
         <v>6</v>
       </c>
@@ -3611,7 +4318,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>63</v>
+      </c>
       <c r="B189">
         <v>6</v>
       </c>
@@ -3628,7 +4338,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>63</v>
+      </c>
       <c r="B190">
         <v>6</v>
       </c>
@@ -3645,7 +4358,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>63</v>
+      </c>
       <c r="B191">
         <v>6</v>
       </c>
@@ -3662,7 +4378,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>63</v>
+      </c>
       <c r="B192">
         <v>6</v>
       </c>
